--- a/Automação_Aniversariantes/Aniversario - Empresa.xlsx
+++ b/Automação_Aniversariantes/Aniversario - Empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grendenecombr-my.sharepoint.com/personal/luiz_nobre_grendene_com_br/Documents/Documentos/automation/Automação_Aniversariantes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3D15DDE1-5EE4-439D-BD98-110C768805FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E9258E1-FB64-4057-8CDE-007D0461FFD9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{3D15DDE1-5EE4-439D-BD98-110C768805FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D6D0A77-1FAF-4FFC-844B-A4DC8E91BF4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -900,8 +900,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1238,10 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2957BCE2-0FD0-4618-A2C6-6C6B6CF9B2E2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>164</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>197</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>204</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>225</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>228</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>243</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>246</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>248</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>254</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>259</v>
       </c>
@@ -1787,19 +1788,19 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1955,13 +1956,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1969,19 +1970,19 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -2095,10 +2096,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -2109,19 +2110,19 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>146</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>150</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -2375,19 +2376,19 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>159</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>198</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>209</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>213</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>216</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -2697,13 +2698,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="B104" s="1">
         <v>1</v>
       </c>
       <c r="C104" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -2711,19 +2712,19 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>239</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>240</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>241</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>249</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>249</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>250</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>257</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>258</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -2879,19 +2880,19 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B117" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>46</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>69</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>90</v>
       </c>
@@ -3005,19 +3006,19 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B126" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>110</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>161</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>176</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>177</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>178</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>196</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>206</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>207</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>210</v>
       </c>
@@ -3313,19 +3314,19 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="B148" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>232</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>236</v>
       </c>
@@ -3355,19 +3356,19 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="B151" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C151" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>253</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>261</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3411,19 +3412,19 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C155" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>50</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>61</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>66</v>
       </c>
@@ -3495,19 +3496,19 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B161" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>85</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>94</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>100</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>104</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>111</v>
       </c>
@@ -3579,19 +3580,19 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="B167" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C167" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>186</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>189</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>194</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -3691,19 +3692,19 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B175" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>234</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>235</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>251</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>262</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>25</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>74</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>75</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>77</v>
       </c>
@@ -3845,13 +3846,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="B186" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C186" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
         <v>5</v>
@@ -3859,19 +3860,19 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="B187" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D187" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>87</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>97</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>98</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>116</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>127</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>133</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>133</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>140</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>160</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>215</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>229</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>52</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>76</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>91</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>96</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>121</v>
       </c>
@@ -4139,19 +4140,19 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="B207" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C207" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D207" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>40</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>71</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>117</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>117</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>63</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>63</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>126</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>137</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>211</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>233</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>260</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>162</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>255</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>156</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>182</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -4389,7 +4390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>108</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>130</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>131</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>148</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>148</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>205</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -4503,19 +4504,19 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C233" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D233" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>195</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>36</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>68</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>224</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>125</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>179</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>59</v>
       </c>
@@ -4669,7 +4670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>147</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>168</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>168</v>
       </c>
@@ -4713,19 +4714,19 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B248" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C248" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D248" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>49</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>134</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>142</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>184</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>35</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>149</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>169</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>113</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>190</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>67</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>120</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>73</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>180</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>202</v>
       </c>
@@ -4951,8 +4952,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D264" xr:uid="{2957BCE2-0FD0-4618-A2C6-6C6B6CF9B2E2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D264">
-      <sortCondition ref="B1:B264"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Aug"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:D248">
+      <sortCondition ref="C1:C264"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
